--- a/biology/Zoologie/Anthia_sexmaculata/Anthia_sexmaculata.xlsx
+++ b/biology/Zoologie/Anthia_sexmaculata/Anthia_sexmaculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthia sexmaculata est une espèce de carabes d'Afrique du Nord, pouvant produire, s'il se sent en danger, un liquide irritant. Ce moyen de défense lui vaut d'être appelé, avec d'autres espèces partageant la même caractéristique, bombardier[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthia sexmaculata est une espèce de carabes d'Afrique du Nord, pouvant produire, s'il se sent en danger, un liquide irritant. Ce moyen de défense lui vaut d'être appelé, avec d'autres espèces partageant la même caractéristique, bombardier.
 </t>
         </is>
       </c>
